--- a/03 Products & Pricing/FRAs.xlsx
+++ b/03 Products & Pricing/FRAs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BOOK\.SWAPS_BOOK\03 Products &amp; Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D59C0-0C8C-4591-9DA9-0521AE2C005E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6068D556-473E-462C-9A0F-DA2B14B92C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{25739176-8D93-4B8D-A4B5-B1CE389BD96E}"/>
   </bookViews>
@@ -527,15 +527,6 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,6 +550,15 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -623,6 +623,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35946522309711287"/>
+          <c:y val="0.18055555555555552"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -654,7 +662,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17737292213473316"/>
+          <c:y val="8.8379629629629641E-2"/>
+          <c:w val="0.76098118985126861"/>
+          <c:h val="0.79030074365704284"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -808,12 +826,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -845,6 +858,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41598140857392829"/>
+              <c:y val="0.82775444736074655"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -874,7 +895,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -925,12 +946,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1122,6 +1138,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39686789151356083"/>
+          <c:y val="0.16666666666666666"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1153,7 +1177,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17459514435695539"/>
+          <c:y val="8.8379629629629641E-2"/>
+          <c:w val="0.75464785651793531"/>
+          <c:h val="0.79030074365704284"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1307,12 +1341,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1349,6 +1378,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41837029746281718"/>
+              <c:y val="0.79997666958296876"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1378,7 +1415,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1429,12 +1466,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2922,15 +2954,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>350681</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42</xdr:rowOff>
+      <xdr:colOff>327821</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2953,7 +2985,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3977640" y="982980"/>
+          <a:off x="3954780" y="716280"/>
           <a:ext cx="1859441" cy="480102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4964,28 +4996,28 @@
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25" t="s">
+      <c r="G19" s="33"/>
+      <c r="H19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="25"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="25" t="s">
+      <c r="N19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="25"/>
+      <c r="O19" s="33"/>
     </row>
     <row r="20" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
@@ -4994,18 +5026,18 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="25"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="26" t="s">
+      <c r="N20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="26"/>
+      <c r="O20" s="34"/>
     </row>
     <row r="21" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
@@ -5048,12 +5080,12 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
     </row>
@@ -5144,30 +5176,30 @@
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="25" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="25"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="25" t="s">
+      <c r="M19" s="35"/>
+      <c r="N19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="25"/>
+      <c r="O19" s="33"/>
     </row>
     <row r="20" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
@@ -5179,12 +5211,12 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="N20" s="25" t="s">
+      <c r="N20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
+      <c r="O20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
     </row>
     <row r="21" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
@@ -5227,12 +5259,12 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
     </row>
@@ -5273,14 +5305,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="N20:O20"/>
     <mergeCell ref="J23:M23"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5365,13 +5397,13 @@
       <c r="B19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="32">
         <v>7.0499999999999998E-3</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="32">
         <v>7.5500000000000003E-3</v>
       </c>
     </row>
@@ -5403,14 +5435,14 @@
       <c r="B23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="31">
         <f>C16*C17*(C18-C19)*C20*C21</f>
         <v>1237.4999999999989</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="31">
         <f>F16*F17*(F18-F19)*F20</f>
         <v>2500</v>
       </c>
@@ -5443,7 +5475,7 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="28">
         <v>10000000</v>
       </c>
     </row>
@@ -5451,7 +5483,7 @@
       <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="25">
         <v>6.5500000000000003E-3</v>
       </c>
     </row>
@@ -5459,7 +5491,7 @@
       <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="27">
         <v>0.25</v>
       </c>
     </row>
@@ -5467,172 +5499,172 @@
       <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="25">
         <v>1E-3</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <f>B11-df</f>
         <v>1.5500000000000002E-3</v>
       </c>
-      <c r="C10" s="31">
-        <f>-1*Notional*(FRA_Rate-$B10)*Contract_Period</f>
+      <c r="C10" s="28">
+        <f t="shared" ref="C10:C20" si="0">-1*Notional*(FRA_Rate-$B10)*Contract_Period</f>
         <v>-12500</v>
       </c>
-      <c r="D10" s="31">
-        <f>Notional*(FRA_Rate-$B10)*Contract_Period</f>
+      <c r="D10" s="28">
+        <f t="shared" ref="D10:D20" si="1">Notional*(FRA_Rate-$B10)*Contract_Period</f>
         <v>12500</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="28">
+      <c r="B11" s="25">
         <f>B12-df</f>
         <v>2.5500000000000002E-3</v>
       </c>
-      <c r="C11" s="31">
-        <f>-1*Notional*(FRA_Rate-$B11)*Contract_Period</f>
+      <c r="C11" s="28">
+        <f t="shared" si="0"/>
         <v>-10000</v>
       </c>
-      <c r="D11" s="31">
-        <f>Notional*(FRA_Rate-$B11)*Contract_Period</f>
+      <c r="D11" s="28">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="28">
+      <c r="B12" s="25">
         <f>B13-df</f>
         <v>3.5500000000000002E-3</v>
       </c>
-      <c r="C12" s="31">
-        <f>-1*Notional*(FRA_Rate-$B12)*Contract_Period</f>
+      <c r="C12" s="28">
+        <f t="shared" si="0"/>
         <v>-7500</v>
       </c>
-      <c r="D12" s="31">
-        <f>Notional*(FRA_Rate-$B12)*Contract_Period</f>
+      <c r="D12" s="28">
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="28">
+      <c r="B13" s="25">
         <f>B14-df</f>
         <v>4.5500000000000002E-3</v>
       </c>
-      <c r="C13" s="31">
-        <f>-1*Notional*(FRA_Rate-$B13)*Contract_Period</f>
+      <c r="C13" s="28">
+        <f t="shared" si="0"/>
         <v>-5000</v>
       </c>
-      <c r="D13" s="31">
-        <f>Notional*(FRA_Rate-$B13)*Contract_Period</f>
+      <c r="D13" s="28">
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="28">
+      <c r="B14" s="25">
         <f>B15-df</f>
         <v>5.5500000000000002E-3</v>
       </c>
-      <c r="C14" s="31">
-        <f>-1*Notional*(FRA_Rate-$B14)*Contract_Period</f>
+      <c r="C14" s="28">
+        <f t="shared" si="0"/>
         <v>-2500</v>
       </c>
-      <c r="D14" s="31">
-        <f>Notional*(FRA_Rate-$B14)*Contract_Period</f>
+      <c r="D14" s="28">
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="29">
+      <c r="B15" s="26">
         <f>FRA_Rate</f>
         <v>6.5500000000000003E-3</v>
       </c>
-      <c r="C15" s="33">
-        <f>-1*Notional*(FRA_Rate-$B15)*Contract_Period</f>
+      <c r="C15" s="30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="33">
-        <f>Notional*(FRA_Rate-$B15)*Contract_Period</f>
+      <c r="D15" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="28">
+      <c r="B16" s="25">
         <f>B15+df</f>
         <v>7.5500000000000003E-3</v>
       </c>
-      <c r="C16" s="31">
-        <f>-1*Notional*(FRA_Rate-$B16)*Contract_Period</f>
+      <c r="C16" s="28">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="D16" s="31">
-        <f>Notional*(FRA_Rate-$B16)*Contract_Period</f>
+      <c r="D16" s="28">
+        <f t="shared" si="1"/>
         <v>-2500</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="28">
+      <c r="B17" s="25">
         <f>B16+df</f>
         <v>8.5500000000000003E-3</v>
       </c>
-      <c r="C17" s="31">
-        <f>-1*Notional*(FRA_Rate-$B17)*Contract_Period</f>
+      <c r="C17" s="28">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="D17" s="31">
-        <f>Notional*(FRA_Rate-$B17)*Contract_Period</f>
+      <c r="D17" s="28">
+        <f t="shared" si="1"/>
         <v>-5000</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="28">
+      <c r="B18" s="25">
         <f>B17+df</f>
         <v>9.5499999999999995E-3</v>
       </c>
-      <c r="C18" s="31">
-        <f>-1*Notional*(FRA_Rate-$B18)*Contract_Period</f>
+      <c r="C18" s="28">
+        <f t="shared" si="0"/>
         <v>7499.9999999999982</v>
       </c>
-      <c r="D18" s="31">
-        <f>Notional*(FRA_Rate-$B18)*Contract_Period</f>
+      <c r="D18" s="28">
+        <f t="shared" si="1"/>
         <v>-7499.9999999999982</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="28">
+      <c r="B19" s="25">
         <f>B18+df</f>
         <v>1.055E-2</v>
       </c>
-      <c r="C19" s="31">
-        <f>-1*Notional*(FRA_Rate-$B19)*Contract_Period</f>
+      <c r="C19" s="28">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D19" s="31">
-        <f>Notional*(FRA_Rate-$B19)*Contract_Period</f>
+      <c r="D19" s="28">
+        <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="28">
+      <c r="B20" s="25">
         <f>B19+df</f>
         <v>1.1550000000000001E-2</v>
       </c>
-      <c r="C20" s="31">
-        <f>-1*Notional*(FRA_Rate-$B20)*Contract_Period</f>
+      <c r="C20" s="28">
+        <f t="shared" si="0"/>
         <v>12500.000000000002</v>
       </c>
-      <c r="D20" s="31">
-        <f>Notional*(FRA_Rate-$B20)*Contract_Period</f>
+      <c r="D20" s="28">
+        <f t="shared" si="1"/>
         <v>-12500.000000000002</v>
       </c>
     </row>

--- a/03 Products & Pricing/FRAs.xlsx
+++ b/03 Products & Pricing/FRAs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BOOK\.SWAPS_BOOK\03 Products &amp; Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6068D556-473E-462C-9A0F-DA2B14B92C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AFFFED-A8E6-42F3-BCB8-0084CF15BD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{25739176-8D93-4B8D-A4B5-B1CE389BD96E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25739176-8D93-4B8D-A4B5-B1CE389BD96E}"/>
   </bookViews>
   <sheets>
     <sheet name="FRA Quotes" sheetId="1" r:id="rId1"/>
@@ -4746,7 +4746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF093D6-E372-413F-BAB0-B4C68DA83186}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5305,14 +5305,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="N20:O20"/>
     <mergeCell ref="J23:M23"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5323,7 +5323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772DF092-E2C4-4B8D-A9A0-C641D736BFF6}">
   <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
